--- a/数据整理/stocks/港股/03993-洛阳钼业.xlsx
+++ b/数据整理/stocks/港股/03993-洛阳钼业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001942</t>
+          <t>001943</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>20.21</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.80</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001943</t>
+          <t>001942</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>20.21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.80</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>006533</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>易方达科融混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.36</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.04</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006533</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达科融混合</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/03993-洛阳钼业.xlsx
+++ b/数据整理/stocks/港股/03993-洛阳钼业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03993-洛阳钼业.xlsx
+++ b/数据整理/stocks/港股/03993-洛阳钼业.xlsx
@@ -770,12 +770,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/03993-洛阳钼业.xlsx
+++ b/数据整理/stocks/港股/03993-洛阳钼业.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -754,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,17 +766,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -785,14 +806,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -801,13 +844,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03993-洛阳钼业.xlsx
+++ b/数据整理/stocks/港股/03993-洛阳钼业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +939,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.38</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +1029,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
@@ -950,13 +1045,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03993-洛阳钼业.xlsx
+++ b/数据整理/stocks/港股/03993-洛阳钼业.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -637,112 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006533</t>
+          <t>005701</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科融混合</t>
+          <t>上投摩根香港精选港股通混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>86.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1680</t>
+          <t>0.0151</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +801,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -939,36 +831,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005701</t>
+          <t>006533</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根香港精选港股通混合</t>
+          <t>易方达科融混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>87.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.1680</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -982,96 +950,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/03993-洛阳钼业.xlsx
+++ b/数据整理/stocks/港股/03993-洛阳钼业.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -549,6 +566,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012346</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5846</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -642,7 +791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -774,7 +923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -944,7 +1093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/03993-洛阳钼业.xlsx
+++ b/数据整理/stocks/港股/03993-洛阳钼业.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.76</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -566,6 +583,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>122.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2918</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6154</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169109</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5335</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3288</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015102</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012439</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015103</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -697,7 +1302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -791,7 +1396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -923,7 +1528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1093,7 +1698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
